--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Ryk</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H2">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.3205489507175</v>
+        <v>5.611633666666667</v>
       </c>
       <c r="N2">
-        <v>23.3205489507175</v>
+        <v>16.834901</v>
       </c>
       <c r="O2">
-        <v>0.4886534473523297</v>
+        <v>0.1044932796553548</v>
       </c>
       <c r="P2">
-        <v>0.4886534473523297</v>
+        <v>0.1044932796553548</v>
       </c>
       <c r="Q2">
-        <v>242.4851727058658</v>
+        <v>58.55315117552556</v>
       </c>
       <c r="R2">
-        <v>242.4851727058658</v>
+        <v>526.9783605797301</v>
       </c>
       <c r="S2">
-        <v>0.4886534473523297</v>
+        <v>0.1014743849898741</v>
       </c>
       <c r="T2">
-        <v>0.4886534473523297</v>
+        <v>0.1014743849898741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H3">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0843373588818174</v>
+        <v>23.41023966666667</v>
       </c>
       <c r="N3">
-        <v>0.0843373588818174</v>
+        <v>70.23071899999999</v>
       </c>
       <c r="O3">
-        <v>0.001767185722998289</v>
+        <v>0.435918106133421</v>
       </c>
       <c r="P3">
-        <v>0.001767185722998289</v>
+        <v>0.435918106133421</v>
       </c>
       <c r="Q3">
-        <v>0.8769330034739545</v>
+        <v>244.2681371736522</v>
       </c>
       <c r="R3">
-        <v>0.8769330034739545</v>
+        <v>2198.41323456287</v>
       </c>
       <c r="S3">
-        <v>0.001767185722998289</v>
+        <v>0.4233240823882283</v>
       </c>
       <c r="T3">
-        <v>0.001767185722998289</v>
+        <v>0.4233240823882283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H4">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.3192197559062</v>
+        <v>0.1135936666666667</v>
       </c>
       <c r="N4">
-        <v>24.3192197559062</v>
+        <v>0.340781</v>
       </c>
       <c r="O4">
-        <v>0.5095793669246719</v>
+        <v>0.002115208419356398</v>
       </c>
       <c r="P4">
-        <v>0.5095793669246719</v>
+        <v>0.002115208419356398</v>
       </c>
       <c r="Q4">
-        <v>252.8692705752703</v>
+        <v>1.185263959125555</v>
       </c>
       <c r="R4">
-        <v>252.8692705752703</v>
+        <v>10.66737563213</v>
       </c>
       <c r="S4">
-        <v>0.5095793669246719</v>
+        <v>0.002054098351468434</v>
       </c>
       <c r="T4">
-        <v>0.5095793669246719</v>
+        <v>0.002054098351468434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H5">
+        <v>31.30273</v>
+      </c>
+      <c r="I5">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J5">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>24.56783033333333</v>
+      </c>
+      <c r="N5">
+        <v>73.703491</v>
+      </c>
+      <c r="O5">
+        <v>0.4574734057918678</v>
+      </c>
+      <c r="P5">
+        <v>0.4574734057918678</v>
+      </c>
+      <c r="Q5">
+        <v>256.3467198700478</v>
+      </c>
+      <c r="R5">
+        <v>2307.12047883043</v>
+      </c>
+      <c r="S5">
+        <v>0.4442566321495875</v>
+      </c>
+      <c r="T5">
+        <v>0.4442566321495874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.310422</v>
+      </c>
+      <c r="H6">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>5.611633666666667</v>
+      </c>
+      <c r="N6">
+        <v>16.834901</v>
+      </c>
+      <c r="O6">
+        <v>0.1044932796553548</v>
+      </c>
+      <c r="P6">
+        <v>0.1044932796553548</v>
+      </c>
+      <c r="Q6">
+        <v>1.741974546074</v>
+      </c>
+      <c r="R6">
+        <v>15.677770914666</v>
+      </c>
+      <c r="S6">
+        <v>0.003018894665480618</v>
+      </c>
+      <c r="T6">
+        <v>0.003018894665480619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.310422</v>
+      </c>
+      <c r="H7">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.41023966666667</v>
+      </c>
+      <c r="N7">
+        <v>70.23071899999999</v>
+      </c>
+      <c r="O7">
+        <v>0.435918106133421</v>
+      </c>
+      <c r="P7">
+        <v>0.435918106133421</v>
+      </c>
+      <c r="Q7">
+        <v>7.267053417805999</v>
+      </c>
+      <c r="R7">
+        <v>65.40348076025398</v>
+      </c>
+      <c r="S7">
+        <v>0.0125940237451927</v>
+      </c>
+      <c r="T7">
+        <v>0.0125940237451927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.310422</v>
+      </c>
+      <c r="H8">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J8">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1135936666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.340781</v>
+      </c>
+      <c r="O8">
+        <v>0.002115208419356398</v>
+      </c>
+      <c r="P8">
+        <v>0.002115208419356398</v>
+      </c>
+      <c r="Q8">
+        <v>0.035261973194</v>
+      </c>
+      <c r="R8">
+        <v>0.317357758746</v>
+      </c>
+      <c r="S8">
+        <v>6.111006788796385E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.111006788796386E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.310422</v>
+      </c>
+      <c r="H9">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J9">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.56783033333333</v>
+      </c>
+      <c r="N9">
+        <v>73.703491</v>
+      </c>
+      <c r="O9">
+        <v>0.4574734057918678</v>
+      </c>
+      <c r="P9">
+        <v>0.4574734057918678</v>
+      </c>
+      <c r="Q9">
+        <v>7.626395027734</v>
+      </c>
+      <c r="R9">
+        <v>68.637555249606</v>
+      </c>
+      <c r="S9">
+        <v>0.01321677364228033</v>
+      </c>
+      <c r="T9">
+        <v>0.01321677364228033</v>
       </c>
     </row>
   </sheetData>
